--- a/config_11.9/shoping_config.xlsx
+++ b/config_11.9/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5779" uniqueCount="1997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5864" uniqueCount="2026">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7701,6 +7701,121 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "come_back_value_gift1" }</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送福利券和苹果大战道具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","28福利券","水滴*1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","48福利券","水滴*2",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","98福利券","水滴*3",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","58福利券","水滴*3",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","98福利券","水滴*5",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","168福利券","水滴*10",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","168福利券","太阳*1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","338福利券","太阳*2",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","668福利券","太阳*5",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","1688福利券","太阳*10",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","jipaiqi"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,28,1,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,48,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,98,3,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,58,3,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,98,5,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,168,10,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,168,1,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,338,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,688,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,338,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,688,5,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1688,10,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7946,7 +8061,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8261,6 +8376,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14175,13 +14293,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO737"/>
+  <dimension ref="A1:AO749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W702" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W718" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA709" sqref="AA709:AA724"/>
+      <selection pane="bottomRight" activeCell="AA738" sqref="AA738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -14381,7 +14499,7 @@
         <v>200</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>171</v>
+        <v>2009</v>
       </c>
       <c r="S2" s="76" t="s">
         <v>172</v>
@@ -56375,7 +56493,7 @@
       <c r="G655" s="90" t="s">
         <v>1897</v>
       </c>
-      <c r="H655" s="109" t="s">
+      <c r="H655" s="110" t="s">
         <v>1874</v>
       </c>
       <c r="K655" s="90" t="s">
@@ -56443,7 +56561,7 @@
       <c r="G656" s="89" t="s">
         <v>1898</v>
       </c>
-      <c r="H656" s="110"/>
+      <c r="H656" s="111"/>
       <c r="K656" s="90" t="s">
         <v>1608</v>
       </c>
@@ -56509,7 +56627,7 @@
       <c r="G657" s="89" t="s">
         <v>1899</v>
       </c>
-      <c r="H657" s="110"/>
+      <c r="H657" s="111"/>
       <c r="K657" s="90" t="s">
         <v>1609</v>
       </c>
@@ -56575,7 +56693,7 @@
       <c r="G658" s="89" t="s">
         <v>1900</v>
       </c>
-      <c r="H658" s="110"/>
+      <c r="H658" s="111"/>
       <c r="K658" s="90" t="s">
         <v>1611</v>
       </c>
@@ -56641,7 +56759,7 @@
       <c r="G659" s="89" t="s">
         <v>1901</v>
       </c>
-      <c r="H659" s="110"/>
+      <c r="H659" s="111"/>
       <c r="K659" s="90" t="s">
         <v>1612</v>
       </c>
@@ -56707,7 +56825,7 @@
       <c r="G660" s="89" t="s">
         <v>1902</v>
       </c>
-      <c r="H660" s="110"/>
+      <c r="H660" s="111"/>
       <c r="K660" s="90" t="s">
         <v>1613</v>
       </c>
@@ -56773,7 +56891,7 @@
       <c r="G661" s="89" t="s">
         <v>1903</v>
       </c>
-      <c r="H661" s="110"/>
+      <c r="H661" s="111"/>
       <c r="K661" s="90" t="s">
         <v>1615</v>
       </c>
@@ -58330,7 +58448,7 @@
       <c r="G683" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H683" s="107" t="s">
+      <c r="H683" s="108" t="s">
         <v>1869</v>
       </c>
       <c r="K683" s="28" t="s">
@@ -58398,7 +58516,7 @@
       <c r="G684" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H684" s="107"/>
+      <c r="H684" s="108"/>
       <c r="K684" s="28" t="s">
         <v>1575</v>
       </c>
@@ -58464,7 +58582,7 @@
       <c r="G685" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H685" s="107"/>
+      <c r="H685" s="108"/>
       <c r="K685" s="28" t="s">
         <v>1577</v>
       </c>
@@ -58530,7 +58648,7 @@
       <c r="G686" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H686" s="107"/>
+      <c r="H686" s="108"/>
       <c r="K686" s="28" t="s">
         <v>1579</v>
       </c>
@@ -58596,7 +58714,7 @@
       <c r="G687" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H687" s="107"/>
+      <c r="H687" s="108"/>
       <c r="K687" s="28" t="s">
         <v>1581</v>
       </c>
@@ -58662,7 +58780,7 @@
       <c r="G688" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H688" s="107"/>
+      <c r="H688" s="108"/>
       <c r="K688" s="28" t="s">
         <v>1583</v>
       </c>
@@ -58728,7 +58846,7 @@
       <c r="G689" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H689" s="107" t="s">
+      <c r="H689" s="108" t="s">
         <v>1870</v>
       </c>
       <c r="K689" s="28" t="s">
@@ -58796,7 +58914,7 @@
       <c r="G690" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H690" s="108"/>
+      <c r="H690" s="109"/>
       <c r="K690" s="28" t="s">
         <v>1575</v>
       </c>
@@ -58862,7 +58980,7 @@
       <c r="G691" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H691" s="108"/>
+      <c r="H691" s="109"/>
       <c r="K691" s="28" t="s">
         <v>1577</v>
       </c>
@@ -58928,7 +59046,7 @@
       <c r="G692" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H692" s="108"/>
+      <c r="H692" s="109"/>
       <c r="K692" s="28" t="s">
         <v>1579</v>
       </c>
@@ -58994,7 +59112,7 @@
       <c r="G693" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H693" s="108"/>
+      <c r="H693" s="109"/>
       <c r="K693" s="28" t="s">
         <v>1581</v>
       </c>
@@ -59060,7 +59178,7 @@
       <c r="G694" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H694" s="108"/>
+      <c r="H694" s="109"/>
       <c r="K694" s="28" t="s">
         <v>1583</v>
       </c>
@@ -59357,7 +59475,7 @@
       <c r="G698" s="97" t="s">
         <v>1897</v>
       </c>
-      <c r="H698" s="109" t="s">
+      <c r="H698" s="110" t="s">
         <v>1875</v>
       </c>
       <c r="K698" s="93" t="s">
@@ -59425,7 +59543,7 @@
       <c r="G699" s="96" t="s">
         <v>1898</v>
       </c>
-      <c r="H699" s="110"/>
+      <c r="H699" s="111"/>
       <c r="K699" s="93" t="s">
         <v>1608</v>
       </c>
@@ -59491,7 +59609,7 @@
       <c r="G700" s="96" t="s">
         <v>1899</v>
       </c>
-      <c r="H700" s="110"/>
+      <c r="H700" s="111"/>
       <c r="K700" s="93" t="s">
         <v>1609</v>
       </c>
@@ -59557,7 +59675,7 @@
       <c r="G701" s="96" t="s">
         <v>1900</v>
       </c>
-      <c r="H701" s="110"/>
+      <c r="H701" s="111"/>
       <c r="K701" s="93" t="s">
         <v>1611</v>
       </c>
@@ -59623,7 +59741,7 @@
       <c r="G702" s="96" t="s">
         <v>1901</v>
       </c>
-      <c r="H702" s="110"/>
+      <c r="H702" s="111"/>
       <c r="K702" s="93" t="s">
         <v>1612</v>
       </c>
@@ -59689,7 +59807,7 @@
       <c r="G703" s="96" t="s">
         <v>1902</v>
       </c>
-      <c r="H703" s="110"/>
+      <c r="H703" s="111"/>
       <c r="K703" s="93" t="s">
         <v>1613</v>
       </c>
@@ -59755,7 +59873,7 @@
       <c r="G704" s="96" t="s">
         <v>1903</v>
       </c>
-      <c r="H704" s="110"/>
+      <c r="H704" s="111"/>
       <c r="K704" s="93" t="s">
         <v>1615</v>
       </c>
@@ -60105,7 +60223,7 @@
       <c r="G709" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H709" s="111" t="s">
+      <c r="H709" s="112" t="s">
         <v>1905</v>
       </c>
       <c r="J709" s="99" t="s">
@@ -60176,7 +60294,7 @@
       <c r="G710" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H710" s="111"/>
+      <c r="H710" s="112"/>
       <c r="J710" s="99" t="s">
         <v>1538</v>
       </c>
@@ -60245,7 +60363,7 @@
       <c r="G711" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H711" s="111"/>
+      <c r="H711" s="112"/>
       <c r="J711" s="99" t="s">
         <v>1538</v>
       </c>
@@ -60314,7 +60432,7 @@
       <c r="G712" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H712" s="111"/>
+      <c r="H712" s="112"/>
       <c r="J712" s="99" t="s">
         <v>1538</v>
       </c>
@@ -60383,7 +60501,7 @@
       <c r="G713" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H713" s="111"/>
+      <c r="H713" s="112"/>
       <c r="J713" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60452,7 +60570,7 @@
       <c r="G714" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H714" s="111"/>
+      <c r="H714" s="112"/>
       <c r="J714" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60521,7 +60639,7 @@
       <c r="G715" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H715" s="111"/>
+      <c r="H715" s="112"/>
       <c r="J715" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60590,7 +60708,7 @@
       <c r="G716" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H716" s="111"/>
+      <c r="H716" s="112"/>
       <c r="J716" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60659,7 +60777,7 @@
       <c r="G717" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H717" s="111"/>
+      <c r="H717" s="112"/>
       <c r="J717" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60728,7 +60846,7 @@
       <c r="G718" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H718" s="111"/>
+      <c r="H718" s="112"/>
       <c r="J718" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60797,7 +60915,7 @@
       <c r="G719" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H719" s="111"/>
+      <c r="H719" s="112"/>
       <c r="J719" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60866,7 +60984,7 @@
       <c r="G720" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H720" s="111"/>
+      <c r="H720" s="112"/>
       <c r="J720" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60935,7 +61053,7 @@
       <c r="G721" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H721" s="111"/>
+      <c r="H721" s="112"/>
       <c r="J721" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61004,7 +61122,7 @@
       <c r="G722" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H722" s="111"/>
+      <c r="H722" s="112"/>
       <c r="J722" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61073,7 +61191,7 @@
       <c r="G723" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H723" s="111"/>
+      <c r="H723" s="112"/>
       <c r="J723" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61142,7 +61260,7 @@
       <c r="G724" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H724" s="111"/>
+      <c r="H724" s="112"/>
       <c r="J724" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61267,7 +61385,7 @@
       <c r="G726" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H726" s="106" t="s">
+      <c r="H726" s="107" t="s">
         <v>1959</v>
       </c>
       <c r="J726" s="21" t="s">
@@ -61338,7 +61456,7 @@
       <c r="G727" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H727" s="106"/>
+      <c r="H727" s="107"/>
       <c r="J727" s="21" t="s">
         <v>1545</v>
       </c>
@@ -61407,7 +61525,7 @@
       <c r="G728" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H728" s="106"/>
+      <c r="H728" s="107"/>
       <c r="J728" s="21" t="s">
         <v>1545</v>
       </c>
@@ -61476,7 +61594,7 @@
       <c r="G729" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H729" s="106"/>
+      <c r="H729" s="107"/>
       <c r="J729" s="21" t="s">
         <v>1545</v>
       </c>
@@ -61545,7 +61663,7 @@
       <c r="G730" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H730" s="106"/>
+      <c r="H730" s="107"/>
       <c r="J730" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61614,7 +61732,7 @@
       <c r="G731" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H731" s="106"/>
+      <c r="H731" s="107"/>
       <c r="J731" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61683,7 +61801,7 @@
       <c r="G732" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H732" s="106"/>
+      <c r="H732" s="107"/>
       <c r="J732" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61752,7 +61870,7 @@
       <c r="G733" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H733" s="106"/>
+      <c r="H733" s="107"/>
       <c r="J733" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61821,7 +61939,7 @@
       <c r="G734" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H734" s="106"/>
+      <c r="H734" s="107"/>
       <c r="J734" s="21" t="s">
         <v>1441</v>
       </c>
@@ -61890,7 +62008,7 @@
       <c r="G735" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H735" s="106"/>
+      <c r="H735" s="107"/>
       <c r="J735" s="21" t="s">
         <v>1441</v>
       </c>
@@ -61959,7 +62077,7 @@
       <c r="G736" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H736" s="106"/>
+      <c r="H736" s="107"/>
       <c r="J736" s="21" t="s">
         <v>1441</v>
       </c>
@@ -62028,7 +62146,7 @@
       <c r="G737" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H737" s="106"/>
+      <c r="H737" s="107"/>
       <c r="J737" s="21" t="s">
         <v>1441</v>
       </c>
@@ -62081,6 +62199,836 @@
         <v>1</v>
       </c>
       <c r="AN737" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:40" s="106" customFormat="1">
+      <c r="A738" s="106">
+        <v>737</v>
+      </c>
+      <c r="B738" s="106">
+        <v>10654</v>
+      </c>
+      <c r="F738" s="106">
+        <v>1</v>
+      </c>
+      <c r="G738" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H738" s="112" t="s">
+        <v>1998</v>
+      </c>
+      <c r="J738" s="106" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K738" s="106" t="s">
+        <v>1999</v>
+      </c>
+      <c r="M738" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N738" s="106">
+        <v>0</v>
+      </c>
+      <c r="O738" s="106">
+        <v>0</v>
+      </c>
+      <c r="P738" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q738" s="106">
+        <v>600</v>
+      </c>
+      <c r="R738" s="106" t="s">
+        <v>2010</v>
+      </c>
+      <c r="S738" s="88" t="s">
+        <v>2014</v>
+      </c>
+      <c r="X738" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y738" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z738" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA738" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB738" s="106">
+        <v>76</v>
+      </c>
+      <c r="AI738" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ738" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM738" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN738" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:40" s="106" customFormat="1">
+      <c r="A739" s="106">
+        <v>738</v>
+      </c>
+      <c r="B739" s="106">
+        <v>10655</v>
+      </c>
+      <c r="F739" s="106">
+        <v>1</v>
+      </c>
+      <c r="G739" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H739" s="112"/>
+      <c r="J739" s="106" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K739" s="106" t="s">
+        <v>2000</v>
+      </c>
+      <c r="M739" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N739" s="106">
+        <v>0</v>
+      </c>
+      <c r="O739" s="106">
+        <v>0</v>
+      </c>
+      <c r="P739" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q739" s="106">
+        <v>1000</v>
+      </c>
+      <c r="R739" s="106" t="s">
+        <v>2010</v>
+      </c>
+      <c r="S739" s="88" t="s">
+        <v>2015</v>
+      </c>
+      <c r="X739" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y739" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z739" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA739" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB739" s="106">
+        <v>76</v>
+      </c>
+      <c r="AI739" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ739" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM739" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN739" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:40" s="106" customFormat="1">
+      <c r="A740" s="106">
+        <v>739</v>
+      </c>
+      <c r="B740" s="106">
+        <v>10656</v>
+      </c>
+      <c r="F740" s="106">
+        <v>1</v>
+      </c>
+      <c r="G740" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H740" s="112"/>
+      <c r="J740" s="106" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K740" s="106" t="s">
+        <v>2001</v>
+      </c>
+      <c r="M740" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N740" s="106">
+        <v>0</v>
+      </c>
+      <c r="O740" s="106">
+        <v>0</v>
+      </c>
+      <c r="P740" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q740" s="106">
+        <v>1800</v>
+      </c>
+      <c r="R740" s="106" t="s">
+        <v>2010</v>
+      </c>
+      <c r="S740" s="88" t="s">
+        <v>2016</v>
+      </c>
+      <c r="X740" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y740" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z740" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA740" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB740" s="106">
+        <v>76</v>
+      </c>
+      <c r="AI740" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ740" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM740" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN740" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:40" s="106" customFormat="1">
+      <c r="A741" s="106">
+        <v>740</v>
+      </c>
+      <c r="B741" s="106">
+        <v>10657</v>
+      </c>
+      <c r="F741" s="106">
+        <v>1</v>
+      </c>
+      <c r="G741" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H741" s="112"/>
+      <c r="J741" s="106" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K741" s="106" t="s">
+        <v>2002</v>
+      </c>
+      <c r="M741" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N741" s="106">
+        <v>0</v>
+      </c>
+      <c r="O741" s="106">
+        <v>0</v>
+      </c>
+      <c r="P741" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q741" s="106">
+        <v>1800</v>
+      </c>
+      <c r="R741" s="106" t="s">
+        <v>2010</v>
+      </c>
+      <c r="S741" s="88" t="s">
+        <v>2017</v>
+      </c>
+      <c r="X741" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y741" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z741" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA741" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB741" s="106">
+        <v>77</v>
+      </c>
+      <c r="AI741" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ741" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM741" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN741" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:40" s="106" customFormat="1">
+      <c r="A742" s="106">
+        <v>741</v>
+      </c>
+      <c r="B742" s="106">
+        <v>10658</v>
+      </c>
+      <c r="F742" s="106">
+        <v>1</v>
+      </c>
+      <c r="G742" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H742" s="112"/>
+      <c r="J742" s="106" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K742" s="106" t="s">
+        <v>2003</v>
+      </c>
+      <c r="M742" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N742" s="106">
+        <v>0</v>
+      </c>
+      <c r="O742" s="106">
+        <v>0</v>
+      </c>
+      <c r="P742" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q742" s="106">
+        <v>3000</v>
+      </c>
+      <c r="R742" s="106" t="s">
+        <v>2010</v>
+      </c>
+      <c r="S742" s="88" t="s">
+        <v>2018</v>
+      </c>
+      <c r="X742" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y742" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z742" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA742" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB742" s="106">
+        <v>77</v>
+      </c>
+      <c r="AI742" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ742" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM742" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN742" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:40" s="106" customFormat="1">
+      <c r="A743" s="106">
+        <v>742</v>
+      </c>
+      <c r="B743" s="106">
+        <v>10659</v>
+      </c>
+      <c r="F743" s="106">
+        <v>1</v>
+      </c>
+      <c r="G743" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H743" s="112"/>
+      <c r="J743" s="106" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K743" s="106" t="s">
+        <v>2004</v>
+      </c>
+      <c r="M743" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N743" s="106">
+        <v>0</v>
+      </c>
+      <c r="O743" s="106">
+        <v>0</v>
+      </c>
+      <c r="P743" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q743" s="106">
+        <v>4800</v>
+      </c>
+      <c r="R743" s="106" t="s">
+        <v>2011</v>
+      </c>
+      <c r="S743" s="88" t="s">
+        <v>2019</v>
+      </c>
+      <c r="X743" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y743" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z743" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA743" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB743" s="106">
+        <v>77</v>
+      </c>
+      <c r="AI743" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ743" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM743" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN743" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:40" s="106" customFormat="1">
+      <c r="A744" s="106">
+        <v>743</v>
+      </c>
+      <c r="B744" s="106">
+        <v>10660</v>
+      </c>
+      <c r="F744" s="106">
+        <v>1</v>
+      </c>
+      <c r="G744" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H744" s="112"/>
+      <c r="J744" s="106" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K744" s="106" t="s">
+        <v>2005</v>
+      </c>
+      <c r="M744" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N744" s="106">
+        <v>0</v>
+      </c>
+      <c r="O744" s="106">
+        <v>0</v>
+      </c>
+      <c r="P744" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q744" s="106">
+        <v>4800</v>
+      </c>
+      <c r="R744" s="106" t="s">
+        <v>2013</v>
+      </c>
+      <c r="S744" s="88" t="s">
+        <v>2020</v>
+      </c>
+      <c r="X744" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y744" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z744" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA744" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB744" s="106">
+        <v>78</v>
+      </c>
+      <c r="AI744" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ744" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM744" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN744" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:40" s="106" customFormat="1">
+      <c r="A745" s="106">
+        <v>744</v>
+      </c>
+      <c r="B745" s="106">
+        <v>10661</v>
+      </c>
+      <c r="F745" s="106">
+        <v>1</v>
+      </c>
+      <c r="G745" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H745" s="112"/>
+      <c r="J745" s="106" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K745" s="106" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M745" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N745" s="106">
+        <v>0</v>
+      </c>
+      <c r="O745" s="106">
+        <v>0</v>
+      </c>
+      <c r="P745" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q745" s="106">
+        <v>9800</v>
+      </c>
+      <c r="R745" s="106" t="s">
+        <v>2013</v>
+      </c>
+      <c r="S745" s="88" t="s">
+        <v>2021</v>
+      </c>
+      <c r="X745" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y745" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z745" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA745" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB745" s="106">
+        <v>78</v>
+      </c>
+      <c r="AI745" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ745" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM745" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN745" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:40" s="106" customFormat="1">
+      <c r="A746" s="106">
+        <v>745</v>
+      </c>
+      <c r="B746" s="106">
+        <v>10662</v>
+      </c>
+      <c r="F746" s="106">
+        <v>1</v>
+      </c>
+      <c r="G746" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H746" s="112"/>
+      <c r="J746" s="106" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K746" s="106" t="s">
+        <v>2007</v>
+      </c>
+      <c r="M746" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N746" s="106">
+        <v>0</v>
+      </c>
+      <c r="O746" s="106">
+        <v>0</v>
+      </c>
+      <c r="P746" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q746" s="106">
+        <v>19800</v>
+      </c>
+      <c r="R746" s="106" t="s">
+        <v>2012</v>
+      </c>
+      <c r="S746" s="88" t="s">
+        <v>2022</v>
+      </c>
+      <c r="X746" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y746" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z746" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA746" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB746" s="106">
+        <v>78</v>
+      </c>
+      <c r="AI746" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ746" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM746" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN746" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:40" s="106" customFormat="1">
+      <c r="A747" s="106">
+        <v>746</v>
+      </c>
+      <c r="B747" s="106">
+        <v>10663</v>
+      </c>
+      <c r="F747" s="106">
+        <v>1</v>
+      </c>
+      <c r="G747" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H747" s="112"/>
+      <c r="J747" s="106" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K747" s="106" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M747" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N747" s="106">
+        <v>0</v>
+      </c>
+      <c r="O747" s="106">
+        <v>0</v>
+      </c>
+      <c r="P747" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q747" s="106">
+        <v>9800</v>
+      </c>
+      <c r="R747" s="106" t="s">
+        <v>2012</v>
+      </c>
+      <c r="S747" s="88" t="s">
+        <v>2023</v>
+      </c>
+      <c r="X747" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y747" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z747" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA747" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB747" s="106">
+        <v>79</v>
+      </c>
+      <c r="AI747" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ747" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM747" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN747" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:40" s="106" customFormat="1">
+      <c r="A748" s="106">
+        <v>747</v>
+      </c>
+      <c r="B748" s="106">
+        <v>10664</v>
+      </c>
+      <c r="F748" s="106">
+        <v>1</v>
+      </c>
+      <c r="G748" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H748" s="112"/>
+      <c r="J748" s="106" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K748" s="106" t="s">
+        <v>2007</v>
+      </c>
+      <c r="M748" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N748" s="106">
+        <v>0</v>
+      </c>
+      <c r="O748" s="106">
+        <v>0</v>
+      </c>
+      <c r="P748" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q748" s="106">
+        <v>19800</v>
+      </c>
+      <c r="R748" s="106" t="s">
+        <v>2012</v>
+      </c>
+      <c r="S748" s="88" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X748" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y748" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z748" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA748" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB748" s="106">
+        <v>79</v>
+      </c>
+      <c r="AI748" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ748" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM748" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN748" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:40" s="106" customFormat="1">
+      <c r="A749" s="106">
+        <v>748</v>
+      </c>
+      <c r="B749" s="106">
+        <v>10665</v>
+      </c>
+      <c r="F749" s="106">
+        <v>1</v>
+      </c>
+      <c r="G749" s="106" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H749" s="112"/>
+      <c r="J749" s="106" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K749" s="106" t="s">
+        <v>2008</v>
+      </c>
+      <c r="M749" s="106">
+        <v>-31</v>
+      </c>
+      <c r="N749" s="106">
+        <v>0</v>
+      </c>
+      <c r="O749" s="106">
+        <v>0</v>
+      </c>
+      <c r="P749" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q749" s="106">
+        <v>49800</v>
+      </c>
+      <c r="R749" s="106" t="s">
+        <v>2012</v>
+      </c>
+      <c r="S749" s="88" t="s">
+        <v>2025</v>
+      </c>
+      <c r="X749" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y749" s="106">
+        <v>99999999</v>
+      </c>
+      <c r="Z749" s="106">
+        <v>1636416000</v>
+      </c>
+      <c r="AA749" s="106">
+        <v>1636991999</v>
+      </c>
+      <c r="AB749" s="106">
+        <v>79</v>
+      </c>
+      <c r="AI749" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ749" s="106">
+        <v>1</v>
+      </c>
+      <c r="AM749" s="106">
+        <v>1</v>
+      </c>
+      <c r="AN749" s="106">
         <v>1</v>
       </c>
     </row>
@@ -62088,7 +63036,8 @@
   <sortState ref="A542:AO548">
     <sortCondition descending="1" ref="A542"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H738:H749"/>
     <mergeCell ref="H726:H737"/>
     <mergeCell ref="H683:H688"/>
     <mergeCell ref="H689:H694"/>

--- a/config_11.9/shoping_config.xlsx
+++ b/config_11.9/shoping_config.xlsx
@@ -8061,7 +8061,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8383,6 +8383,12 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8397,9 +8403,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14296,10 +14299,10 @@
   <dimension ref="A1:AO749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W718" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X727" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA738" sqref="AA738"/>
+      <selection pane="bottomRight" activeCell="AB752" sqref="AB752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -56493,7 +56496,7 @@
       <c r="G655" s="90" t="s">
         <v>1897</v>
       </c>
-      <c r="H655" s="110" t="s">
+      <c r="H655" s="112" t="s">
         <v>1874</v>
       </c>
       <c r="K655" s="90" t="s">
@@ -56561,7 +56564,7 @@
       <c r="G656" s="89" t="s">
         <v>1898</v>
       </c>
-      <c r="H656" s="111"/>
+      <c r="H656" s="113"/>
       <c r="K656" s="90" t="s">
         <v>1608</v>
       </c>
@@ -56627,7 +56630,7 @@
       <c r="G657" s="89" t="s">
         <v>1899</v>
       </c>
-      <c r="H657" s="111"/>
+      <c r="H657" s="113"/>
       <c r="K657" s="90" t="s">
         <v>1609</v>
       </c>
@@ -56693,7 +56696,7 @@
       <c r="G658" s="89" t="s">
         <v>1900</v>
       </c>
-      <c r="H658" s="111"/>
+      <c r="H658" s="113"/>
       <c r="K658" s="90" t="s">
         <v>1611</v>
       </c>
@@ -56759,7 +56762,7 @@
       <c r="G659" s="89" t="s">
         <v>1901</v>
       </c>
-      <c r="H659" s="111"/>
+      <c r="H659" s="113"/>
       <c r="K659" s="90" t="s">
         <v>1612</v>
       </c>
@@ -56825,7 +56828,7 @@
       <c r="G660" s="89" t="s">
         <v>1902</v>
       </c>
-      <c r="H660" s="111"/>
+      <c r="H660" s="113"/>
       <c r="K660" s="90" t="s">
         <v>1613</v>
       </c>
@@ -56891,7 +56894,7 @@
       <c r="G661" s="89" t="s">
         <v>1903</v>
       </c>
-      <c r="H661" s="111"/>
+      <c r="H661" s="113"/>
       <c r="K661" s="90" t="s">
         <v>1615</v>
       </c>
@@ -58448,7 +58451,7 @@
       <c r="G683" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H683" s="108" t="s">
+      <c r="H683" s="110" t="s">
         <v>1869</v>
       </c>
       <c r="K683" s="28" t="s">
@@ -58516,7 +58519,7 @@
       <c r="G684" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H684" s="108"/>
+      <c r="H684" s="110"/>
       <c r="K684" s="28" t="s">
         <v>1575</v>
       </c>
@@ -58582,7 +58585,7 @@
       <c r="G685" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H685" s="108"/>
+      <c r="H685" s="110"/>
       <c r="K685" s="28" t="s">
         <v>1577</v>
       </c>
@@ -58648,7 +58651,7 @@
       <c r="G686" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H686" s="108"/>
+      <c r="H686" s="110"/>
       <c r="K686" s="28" t="s">
         <v>1579</v>
       </c>
@@ -58714,7 +58717,7 @@
       <c r="G687" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H687" s="108"/>
+      <c r="H687" s="110"/>
       <c r="K687" s="28" t="s">
         <v>1581</v>
       </c>
@@ -58780,7 +58783,7 @@
       <c r="G688" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H688" s="108"/>
+      <c r="H688" s="110"/>
       <c r="K688" s="28" t="s">
         <v>1583</v>
       </c>
@@ -58846,7 +58849,7 @@
       <c r="G689" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H689" s="108" t="s">
+      <c r="H689" s="110" t="s">
         <v>1870</v>
       </c>
       <c r="K689" s="28" t="s">
@@ -58914,7 +58917,7 @@
       <c r="G690" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H690" s="109"/>
+      <c r="H690" s="111"/>
       <c r="K690" s="28" t="s">
         <v>1575</v>
       </c>
@@ -58980,7 +58983,7 @@
       <c r="G691" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H691" s="109"/>
+      <c r="H691" s="111"/>
       <c r="K691" s="28" t="s">
         <v>1577</v>
       </c>
@@ -59046,7 +59049,7 @@
       <c r="G692" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H692" s="109"/>
+      <c r="H692" s="111"/>
       <c r="K692" s="28" t="s">
         <v>1579</v>
       </c>
@@ -59112,7 +59115,7 @@
       <c r="G693" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H693" s="109"/>
+      <c r="H693" s="111"/>
       <c r="K693" s="28" t="s">
         <v>1581</v>
       </c>
@@ -59178,7 +59181,7 @@
       <c r="G694" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H694" s="109"/>
+      <c r="H694" s="111"/>
       <c r="K694" s="28" t="s">
         <v>1583</v>
       </c>
@@ -59475,7 +59478,7 @@
       <c r="G698" s="97" t="s">
         <v>1897</v>
       </c>
-      <c r="H698" s="110" t="s">
+      <c r="H698" s="112" t="s">
         <v>1875</v>
       </c>
       <c r="K698" s="93" t="s">
@@ -59543,7 +59546,7 @@
       <c r="G699" s="96" t="s">
         <v>1898</v>
       </c>
-      <c r="H699" s="111"/>
+      <c r="H699" s="113"/>
       <c r="K699" s="93" t="s">
         <v>1608</v>
       </c>
@@ -59609,7 +59612,7 @@
       <c r="G700" s="96" t="s">
         <v>1899</v>
       </c>
-      <c r="H700" s="111"/>
+      <c r="H700" s="113"/>
       <c r="K700" s="93" t="s">
         <v>1609</v>
       </c>
@@ -59675,7 +59678,7 @@
       <c r="G701" s="96" t="s">
         <v>1900</v>
       </c>
-      <c r="H701" s="111"/>
+      <c r="H701" s="113"/>
       <c r="K701" s="93" t="s">
         <v>1611</v>
       </c>
@@ -59741,7 +59744,7 @@
       <c r="G702" s="96" t="s">
         <v>1901</v>
       </c>
-      <c r="H702" s="111"/>
+      <c r="H702" s="113"/>
       <c r="K702" s="93" t="s">
         <v>1612</v>
       </c>
@@ -59807,7 +59810,7 @@
       <c r="G703" s="96" t="s">
         <v>1902</v>
       </c>
-      <c r="H703" s="111"/>
+      <c r="H703" s="113"/>
       <c r="K703" s="93" t="s">
         <v>1613</v>
       </c>
@@ -59873,7 +59876,7 @@
       <c r="G704" s="96" t="s">
         <v>1903</v>
       </c>
-      <c r="H704" s="111"/>
+      <c r="H704" s="113"/>
       <c r="K704" s="93" t="s">
         <v>1615</v>
       </c>
@@ -60223,7 +60226,7 @@
       <c r="G709" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H709" s="112" t="s">
+      <c r="H709" s="108" t="s">
         <v>1905</v>
       </c>
       <c r="J709" s="99" t="s">
@@ -60294,7 +60297,7 @@
       <c r="G710" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H710" s="112"/>
+      <c r="H710" s="108"/>
       <c r="J710" s="99" t="s">
         <v>1538</v>
       </c>
@@ -60363,7 +60366,7 @@
       <c r="G711" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H711" s="112"/>
+      <c r="H711" s="108"/>
       <c r="J711" s="99" t="s">
         <v>1538</v>
       </c>
@@ -60432,7 +60435,7 @@
       <c r="G712" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H712" s="112"/>
+      <c r="H712" s="108"/>
       <c r="J712" s="99" t="s">
         <v>1538</v>
       </c>
@@ -60501,7 +60504,7 @@
       <c r="G713" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H713" s="112"/>
+      <c r="H713" s="108"/>
       <c r="J713" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60570,7 +60573,7 @@
       <c r="G714" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H714" s="112"/>
+      <c r="H714" s="108"/>
       <c r="J714" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60639,7 +60642,7 @@
       <c r="G715" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H715" s="112"/>
+      <c r="H715" s="108"/>
       <c r="J715" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60708,7 +60711,7 @@
       <c r="G716" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H716" s="112"/>
+      <c r="H716" s="108"/>
       <c r="J716" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60777,7 +60780,7 @@
       <c r="G717" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H717" s="112"/>
+      <c r="H717" s="108"/>
       <c r="J717" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60846,7 +60849,7 @@
       <c r="G718" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H718" s="112"/>
+      <c r="H718" s="108"/>
       <c r="J718" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60915,7 +60918,7 @@
       <c r="G719" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H719" s="112"/>
+      <c r="H719" s="108"/>
       <c r="J719" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60984,7 +60987,7 @@
       <c r="G720" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H720" s="112"/>
+      <c r="H720" s="108"/>
       <c r="J720" s="99" t="s">
         <v>1552</v>
       </c>
@@ -61053,7 +61056,7 @@
       <c r="G721" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H721" s="112"/>
+      <c r="H721" s="108"/>
       <c r="J721" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61122,7 +61125,7 @@
       <c r="G722" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H722" s="112"/>
+      <c r="H722" s="108"/>
       <c r="J722" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61191,7 +61194,7 @@
       <c r="G723" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H723" s="112"/>
+      <c r="H723" s="108"/>
       <c r="J723" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61260,7 +61263,7 @@
       <c r="G724" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H724" s="112"/>
+      <c r="H724" s="108"/>
       <c r="J724" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61385,7 +61388,7 @@
       <c r="G726" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H726" s="107" t="s">
+      <c r="H726" s="109" t="s">
         <v>1959</v>
       </c>
       <c r="J726" s="21" t="s">
@@ -61456,7 +61459,7 @@
       <c r="G727" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H727" s="107"/>
+      <c r="H727" s="109"/>
       <c r="J727" s="21" t="s">
         <v>1545</v>
       </c>
@@ -61525,7 +61528,7 @@
       <c r="G728" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H728" s="107"/>
+      <c r="H728" s="109"/>
       <c r="J728" s="21" t="s">
         <v>1545</v>
       </c>
@@ -61594,7 +61597,7 @@
       <c r="G729" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H729" s="107"/>
+      <c r="H729" s="109"/>
       <c r="J729" s="21" t="s">
         <v>1545</v>
       </c>
@@ -61663,7 +61666,7 @@
       <c r="G730" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H730" s="107"/>
+      <c r="H730" s="109"/>
       <c r="J730" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61732,7 +61735,7 @@
       <c r="G731" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H731" s="107"/>
+      <c r="H731" s="109"/>
       <c r="J731" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61801,7 +61804,7 @@
       <c r="G732" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H732" s="107"/>
+      <c r="H732" s="109"/>
       <c r="J732" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61870,7 +61873,7 @@
       <c r="G733" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H733" s="107"/>
+      <c r="H733" s="109"/>
       <c r="J733" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61939,7 +61942,7 @@
       <c r="G734" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H734" s="107"/>
+      <c r="H734" s="109"/>
       <c r="J734" s="21" t="s">
         <v>1441</v>
       </c>
@@ -62008,7 +62011,7 @@
       <c r="G735" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H735" s="107"/>
+      <c r="H735" s="109"/>
       <c r="J735" s="21" t="s">
         <v>1441</v>
       </c>
@@ -62077,7 +62080,7 @@
       <c r="G736" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H736" s="107"/>
+      <c r="H736" s="109"/>
       <c r="J736" s="21" t="s">
         <v>1441</v>
       </c>
@@ -62146,7 +62149,7 @@
       <c r="G737" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H737" s="107"/>
+      <c r="H737" s="109"/>
       <c r="J737" s="21" t="s">
         <v>1441</v>
       </c>
@@ -62215,7 +62218,7 @@
       <c r="G738" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H738" s="112" t="s">
+      <c r="H738" s="108" t="s">
         <v>1998</v>
       </c>
       <c r="J738" s="106" t="s">
@@ -62255,7 +62258,7 @@
         <v>1636416000</v>
       </c>
       <c r="AA738" s="106">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
       <c r="AB738" s="106">
         <v>76</v>
@@ -62286,7 +62289,7 @@
       <c r="G739" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H739" s="112"/>
+      <c r="H739" s="108"/>
       <c r="J739" s="106" t="s">
         <v>1538</v>
       </c>
@@ -62324,7 +62327,7 @@
         <v>1636416000</v>
       </c>
       <c r="AA739" s="106">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
       <c r="AB739" s="106">
         <v>76</v>
@@ -62355,7 +62358,7 @@
       <c r="G740" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H740" s="112"/>
+      <c r="H740" s="108"/>
       <c r="J740" s="106" t="s">
         <v>1538</v>
       </c>
@@ -62392,8 +62395,8 @@
       <c r="Z740" s="106">
         <v>1636416000</v>
       </c>
-      <c r="AA740" s="106">
-        <v>1636991999</v>
+      <c r="AA740" s="107">
+        <v>1637596799</v>
       </c>
       <c r="AB740" s="106">
         <v>76</v>
@@ -62424,7 +62427,7 @@
       <c r="G741" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H741" s="112"/>
+      <c r="H741" s="108"/>
       <c r="J741" s="106" t="s">
         <v>1545</v>
       </c>
@@ -62461,8 +62464,8 @@
       <c r="Z741" s="106">
         <v>1636416000</v>
       </c>
-      <c r="AA741" s="106">
-        <v>1636991999</v>
+      <c r="AA741" s="107">
+        <v>1637596799</v>
       </c>
       <c r="AB741" s="106">
         <v>77</v>
@@ -62493,7 +62496,7 @@
       <c r="G742" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H742" s="112"/>
+      <c r="H742" s="108"/>
       <c r="J742" s="106" t="s">
         <v>1545</v>
       </c>
@@ -62530,8 +62533,8 @@
       <c r="Z742" s="106">
         <v>1636416000</v>
       </c>
-      <c r="AA742" s="106">
-        <v>1636991999</v>
+      <c r="AA742" s="107">
+        <v>1637596799</v>
       </c>
       <c r="AB742" s="106">
         <v>77</v>
@@ -62562,7 +62565,7 @@
       <c r="G743" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H743" s="112"/>
+      <c r="H743" s="108"/>
       <c r="J743" s="106" t="s">
         <v>1545</v>
       </c>
@@ -62599,8 +62602,8 @@
       <c r="Z743" s="106">
         <v>1636416000</v>
       </c>
-      <c r="AA743" s="106">
-        <v>1636991999</v>
+      <c r="AA743" s="107">
+        <v>1637596799</v>
       </c>
       <c r="AB743" s="106">
         <v>77</v>
@@ -62631,7 +62634,7 @@
       <c r="G744" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H744" s="112"/>
+      <c r="H744" s="108"/>
       <c r="J744" s="106" t="s">
         <v>1552</v>
       </c>
@@ -62668,8 +62671,8 @@
       <c r="Z744" s="106">
         <v>1636416000</v>
       </c>
-      <c r="AA744" s="106">
-        <v>1636991999</v>
+      <c r="AA744" s="107">
+        <v>1637596799</v>
       </c>
       <c r="AB744" s="106">
         <v>78</v>
@@ -62700,7 +62703,7 @@
       <c r="G745" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H745" s="112"/>
+      <c r="H745" s="108"/>
       <c r="J745" s="106" t="s">
         <v>1552</v>
       </c>
@@ -62737,8 +62740,8 @@
       <c r="Z745" s="106">
         <v>1636416000</v>
       </c>
-      <c r="AA745" s="106">
-        <v>1636991999</v>
+      <c r="AA745" s="107">
+        <v>1637596799</v>
       </c>
       <c r="AB745" s="106">
         <v>78</v>
@@ -62769,7 +62772,7 @@
       <c r="G746" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H746" s="112"/>
+      <c r="H746" s="108"/>
       <c r="J746" s="106" t="s">
         <v>1552</v>
       </c>
@@ -62806,8 +62809,8 @@
       <c r="Z746" s="106">
         <v>1636416000</v>
       </c>
-      <c r="AA746" s="106">
-        <v>1636991999</v>
+      <c r="AA746" s="107">
+        <v>1637596799</v>
       </c>
       <c r="AB746" s="106">
         <v>78</v>
@@ -62838,7 +62841,7 @@
       <c r="G747" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H747" s="112"/>
+      <c r="H747" s="108"/>
       <c r="J747" s="106" t="s">
         <v>1441</v>
       </c>
@@ -62875,8 +62878,8 @@
       <c r="Z747" s="106">
         <v>1636416000</v>
       </c>
-      <c r="AA747" s="106">
-        <v>1636991999</v>
+      <c r="AA747" s="107">
+        <v>1637596799</v>
       </c>
       <c r="AB747" s="106">
         <v>79</v>
@@ -62907,7 +62910,7 @@
       <c r="G748" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H748" s="112"/>
+      <c r="H748" s="108"/>
       <c r="J748" s="106" t="s">
         <v>1441</v>
       </c>
@@ -62944,8 +62947,8 @@
       <c r="Z748" s="106">
         <v>1636416000</v>
       </c>
-      <c r="AA748" s="106">
-        <v>1636991999</v>
+      <c r="AA748" s="107">
+        <v>1637596799</v>
       </c>
       <c r="AB748" s="106">
         <v>79</v>
@@ -62976,7 +62979,7 @@
       <c r="G749" s="106" t="s">
         <v>1997</v>
       </c>
-      <c r="H749" s="112"/>
+      <c r="H749" s="108"/>
       <c r="J749" s="106" t="s">
         <v>1441</v>
       </c>
@@ -63013,8 +63016,8 @@
       <c r="Z749" s="106">
         <v>1636416000</v>
       </c>
-      <c r="AA749" s="106">
-        <v>1636991999</v>
+      <c r="AA749" s="107">
+        <v>1637596799</v>
       </c>
       <c r="AB749" s="106">
         <v>79</v>

--- a/config_11.9/shoping_config.xlsx
+++ b/config_11.9/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5864" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5870" uniqueCount="2032">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7816,6 +7816,30 @@
   </si>
   <si>
     <t>49800000,1688,10,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"额外比赛次数*10","1000万金币","66福利券","锁定*10","冰冻*10","狂暴*10",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_vip4_match","jing_bi","shop_gold_sum","prop_3d_fish_lock","prop_3d_fish_frozen","prop_3d_fish_wild",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10000000,66,10,10,10,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -14296,13 +14320,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO749"/>
+  <dimension ref="A1:AO750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X727" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AG730" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB752" sqref="AB752"/>
+      <selection pane="bottomRight" activeCell="B750" sqref="B750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -14317,13 +14341,13 @@
     <col min="8" max="8" width="22.875" style="35" customWidth="1"/>
     <col min="9" max="9" width="29" style="35" customWidth="1"/>
     <col min="10" max="10" width="27.75" style="35" customWidth="1"/>
-    <col min="11" max="11" width="63.125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="70.5" style="35" customWidth="1"/>
     <col min="12" max="12" width="17.75" style="35" customWidth="1"/>
     <col min="13" max="13" width="22" style="35" customWidth="1"/>
     <col min="14" max="15" width="14.75" style="35" customWidth="1"/>
     <col min="16" max="16" width="10.5" style="35" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="35" customWidth="1"/>
-    <col min="18" max="18" width="92.625" style="35" customWidth="1"/>
+    <col min="18" max="18" width="111.25" style="35" customWidth="1"/>
     <col min="19" max="19" width="30.125" style="36" customWidth="1"/>
     <col min="20" max="20" width="40.5" style="35" customWidth="1"/>
     <col min="21" max="21" width="46" style="35" customWidth="1"/>
@@ -63032,6 +63056,71 @@
         <v>1</v>
       </c>
       <c r="AN749" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:40">
+      <c r="A750" s="21">
+        <v>749</v>
+      </c>
+      <c r="B750" s="35">
+        <v>10666</v>
+      </c>
+      <c r="F750" s="35">
+        <v>1</v>
+      </c>
+      <c r="G750" s="35" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K750" s="35" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M750" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N750" s="35">
+        <v>0</v>
+      </c>
+      <c r="O750" s="35">
+        <v>0</v>
+      </c>
+      <c r="P750" s="35" t="s">
+        <v>2028</v>
+      </c>
+      <c r="Q750" s="35">
+        <v>9800</v>
+      </c>
+      <c r="R750" s="35" t="s">
+        <v>2029</v>
+      </c>
+      <c r="S750" s="36" t="s">
+        <v>2030</v>
+      </c>
+      <c r="X750" s="35" t="s">
+        <v>2031</v>
+      </c>
+      <c r="Y750" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z750" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA750" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB750" s="35">
+        <v>14</v>
+      </c>
+      <c r="AI750" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ750" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM750" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN750" s="35">
         <v>1</v>
       </c>
     </row>
